--- a/graph_generation/results_prelim/palm/level_10/k_0.xlsx
+++ b/graph_generation/results_prelim/palm/level_10/k_0.xlsx
@@ -31,33 +31,32 @@
     <t>evaluator_partial_correctness</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-What is the least cost path to travel first from node 0 to node B, and then from node node B to node 14? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 5 3 0 0 0 0 0 0 0 0 0 1 0
- C 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 3 0 0 3 0 0 0 1 0 2 0 0 0 0
- E 0 0 0 3 0 4 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 4 0 3 3 0 0 0 0 0 0 0
- G 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- I 0 0 0 1 0 0 0 0 0 4 0 0 0 0 1
- J 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
- K 0 0 0 2 0 0 0 0 0 0 0 4 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 4 0 5 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 5 0 3 0
- N 0 1 0 0 0 0 0 0 0 0 0 0 3 0 0
- O 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 13 nodes labelled A to M. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node A to node H, and then from node node H to node M? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M
+ A 0 3 4 0 0 0 0 0 0 0 1 0 3
+ B 3 0 0 0 0 0 0 0 0 0 0 0 0
+ C 4 0 0 4 5 0 3 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 0 0 0 0 0 0
+ E 0 0 5 0 0 4 0 0 0 0 0 0 0
+ F 0 0 0 0 4 0 0 0 0 0 0 0 0
+ G 0 0 3 0 0 0 0 3 0 0 0 0 0
+ H 0 0 0 0 0 0 3 0 3 5 0 0 0
+ I 0 0 0 0 0 0 0 3 0 0 0 0 0
+ J 0 0 0 0 0 0 0 5 0 0 0 0 0
+ K 1 0 0 0 0 0 0 0 0 0 0 2 0
+ L 0 0 0 0 0 0 0 0 0 0 2 0 2
+ M 3 0 0 0 0 0 0 0 0 0 0 2 0
     </t>
   </si>
   <si>
-    <t>Path from A to B: A -&gt; B
-Path from B to O: B -&gt; D -&gt; I -&gt; O</t>
-  </si>
-  <si>
-    <t>The least cost path to travel from node 0 to node B is 0 -&gt; B.
-The least cost path to travel from node B to node 14 is B -&gt; N -&gt; O -&gt; 14.</t>
+    <t>Path from A to H: A -&gt; C -&gt; G -&gt; H
+Path from H to M: H -&gt; G -&gt; C -&gt; A -&gt; M</t>
+  </si>
+  <si>
+    <t>The least cost path to travel from node A to node H is: A -&gt; D -&gt; H
+The least cost path to travel from node H to node M is: H -&gt; M
+The total cost of the path is 7.</t>
   </si>
   <si>
     <t>Wrong</t>
